--- a/biology/Médecine/Notre_corps/Notre_corps.xlsx
+++ b/biology/Médecine/Notre_corps/Notre_corps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Notre corps est un film français réalisé par Claire Simon et sorti en 2023.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis les premières consultations gynécologiques de l'adolescence jusqu'à une unité de soins palliatifs en passant par la salle d'accouchement, le service de procréation médicalement assistée, ceux d'obstétrique ou d'oncologie, sans oublier les parcours de transition de genre, Claire Simon regarde avec sa caméra le corps de femmes confrontées à l'hôpital. Le film a été entièrement tourné à l'hôpital Tenon, à Paris.
 </t>
@@ -542,7 +556,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « J’ai eu l’occasion de filmer à l’hôpital l’épopée des corps féminins, dans leur diversité, leur singularité, leur beauté tout au long des étapes sur le chemin de la vie. »
@@ -574,7 +590,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre : Notre corps
 Réalisation : Claire Simon
@@ -589,7 +607,7 @@
 Durée : 168 minutes
 Dates de sortie :
 Allemagne : 17 février 2023 (Berlinale)
-France : 4 octobre 2023[1]</t>
+France : 4 octobre 2023</t>
         </is>
       </c>
     </row>
@@ -619,11 +637,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nomination
-César 2024 : Meilleur film documentaire
-Sélections
-Berlinale 2023 (première mondiale)
-Visions du réel 2023[2]
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>César 2024 : Meilleur film documentaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Notre_corps</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Notre_corps</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sélections</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Berlinale 2023 (première mondiale)
+Visions du réel 2023
 Festival La Rochelle Cinéma 2023
 Cinéma du réel 2023
 Champs-Élysées Film Festival 2023</t>
